--- a/opdracht/excel.xlsx
+++ b/opdracht/excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Websites\DATABASE-DESIGN\opdracht\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\XAMPP\htdocs\Websites\DATABASE-DESIGN\opdracht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BE805F2-D521-400F-BD30-6AA14CA26DF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08FD7B2-A79C-4395-81AA-DEE54796F16F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{9B008BD5-E398-413B-A7E3-4A9FCEF4CB64}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{9B008BD5-E398-413B-A7E3-4A9FCEF4CB64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="28">
   <si>
     <t>0NV</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>LastName</t>
+  </si>
+  <si>
+    <t>1NV=2NV=3NV</t>
+  </si>
+  <si>
+    <t>naam</t>
   </si>
 </sst>
 </file>
@@ -514,7 +520,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,6 +724,9 @@
       <c r="C12" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="H12" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -767,7 +776,7 @@
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -782,9 +791,6 @@
       </c>
       <c r="E16" t="s">
         <v>23</v>
-      </c>
-      <c r="F16" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
